--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10985.99</v>
+        <v>10987.44</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17059.6</v>
+        <v>17064.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1745</v>
+        <v>1.1747</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1747</v>
+        <v>1.1751</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>19997.3</v>
+        <v>20008.9</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3767</v>
+        <v>1.3775</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.56</v>
+        <v>1867.8</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.84</v>
+        <v>12.845</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10130.46</v>
+        <v>10131.92</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10787.63</v>
+        <v>10790.03</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.258</v>
+        <v>1.2582</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5737</v>
+        <v>6.5735</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7776</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.79</v>
+        <v>110.81</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1131.3</v>
+        <v>1130.85</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.555</v>
+        <v>48.58</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1668,7 +1668,7 @@
         <v>48.61</v>
       </c>
       <c r="G23" t="n">
-        <v>48.51</v>
+        <v>48.508</v>
       </c>
     </row>
     <row r="24">
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3463</v>
+        <v>1.3462</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.295</v>
+        <v>31.3</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>64.09</v>
+        <v>63.81</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.55</v>
+        <v>60.27</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1715.85</v>
+        <v>1715.55</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16072.5</v>
+        <v>16070</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6759.85</v>
+        <v>6747.25</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.722</v>
+        <v>1.718</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1143,7 +1143,7 @@
         <v>44287</v>
       </c>
       <c r="D2" t="n">
-        <v>3739</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="3">
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17064.7</v>
+        <v>17057.4</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1747</v>
+        <v>1.1743</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20008.9</v>
+        <v>20011.1</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3775</v>
+        <v>1.3777</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.8</v>
+        <v>1867.68</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.1</v>
+        <v>131.09</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10131.92</v>
+        <v>10130.46</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6974</v>
+        <v>0.6975</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10790.03</v>
+        <v>10789.23</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2582</v>
+        <v>1.2585</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5735</v>
+        <v>6.5737</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7772</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.85</v>
+        <v>1130.8</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.58</v>
+        <v>48.571</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.81</v>
+        <v>63.77</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.27</v>
+        <v>60.25</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1715.55</v>
+        <v>1714.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6747.25</v>
+        <v>6743.37</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.718</v>
+        <v>1.723</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10987.44</v>
+        <v>10983.08</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7564</v>
+        <v>0.7562</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17057.4</v>
+        <v>17047.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1743</v>
+        <v>1.1737</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20011.1</v>
+        <v>20009.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3777</v>
+        <v>1.3776</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.68</v>
+        <v>1867.6</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10130.46</v>
+        <v>10128.29</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6975</v>
+        <v>0.6973</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10789.23</v>
+        <v>10786.83</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2585</v>
+        <v>1.259</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5737</v>
+        <v>6.5741</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.8</v>
+        <v>1130.95</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,13 +1659,13 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.571</v>
+        <v>48.567</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
       </c>
       <c r="F23" t="n">
-        <v>48.61</v>
+        <v>48.632</v>
       </c>
       <c r="G23" t="n">
         <v>48.508</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3462</v>
+        <v>1.3464</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.77</v>
+        <v>63.66</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.25</v>
+        <v>60.16</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1714.95</v>
+        <v>1714.3</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16070</v>
+        <v>16067.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6743.37</v>
+        <v>6747.24</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.723</v>
+        <v>1.72</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2909,7 +2909,7 @@
         <v>44287</v>
       </c>
       <c r="D73" t="n">
-        <v>5.943</v>
+        <v>5.946</v>
       </c>
       <c r="E73" t="n">
         <v>5.992</v>
@@ -2934,7 +2934,7 @@
         <v>44287</v>
       </c>
       <c r="D74" t="n">
-        <v>6.841</v>
+        <v>6.84</v>
       </c>
       <c r="E74" t="n">
         <v>6.873</v>
@@ -2943,7 +2943,7 @@
         <v>6.873</v>
       </c>
       <c r="G74" t="n">
-        <v>6.841</v>
+        <v>6.84</v>
       </c>
     </row>
   </sheetData>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10983.08</v>
+        <v>10995.43</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7562</v>
+        <v>0.757</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17047.3</v>
+        <v>17055.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1737</v>
+        <v>1.1741</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20009.6</v>
+        <v>20023.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3776</v>
+        <v>1.3785</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.6</v>
+        <v>1867.8</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.09</v>
+        <v>131.13</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.845</v>
+        <v>12.84</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10128.29</v>
+        <v>10141.36</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6973</v>
+        <v>0.6981000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10786.83</v>
+        <v>10794.04</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.058</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.259</v>
+        <v>1.2588</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5741</v>
+        <v>6.5742</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7772</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.81</v>
+        <v>110.76</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.95</v>
+        <v>1131.15</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,13 +1659,13 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.567</v>
+        <v>48.61</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
       </c>
       <c r="F23" t="n">
-        <v>48.632</v>
+        <v>48.635</v>
       </c>
       <c r="G23" t="n">
         <v>48.508</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3464</v>
+        <v>1.3457</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.3</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.66</v>
+        <v>63.02</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1743,7 +1743,7 @@
         <v>64.23</v>
       </c>
       <c r="G26" t="n">
-        <v>62.81</v>
+        <v>62.53</v>
       </c>
     </row>
     <row r="27">
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.16</v>
+        <v>59.5</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1768,7 +1768,7 @@
         <v>60.65</v>
       </c>
       <c r="G27" t="n">
-        <v>59.27</v>
+        <v>59.03</v>
       </c>
     </row>
     <row r="28">
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1714.3</v>
+        <v>1713.75</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2668,7 +2668,7 @@
         <v>3470.03</v>
       </c>
       <c r="G63" t="n">
-        <v>3438.9</v>
+        <v>3438.83</v>
       </c>
     </row>
     <row r="64">
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6747.24</v>
+        <v>6741.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.72</v>
+        <v>1.716</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10995.43</v>
+        <v>10992.52</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.757</v>
+        <v>0.7569</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17055.3</v>
+        <v>17045.8</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1741</v>
+        <v>1.1737</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20023.4</v>
+        <v>20008.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3785</v>
+        <v>1.3775</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.8</v>
+        <v>1867.83</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.13</v>
+        <v>131.11</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10141.36</v>
+        <v>10137</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6981000000000001</v>
+        <v>0.6979</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10794.04</v>
+        <v>10792.43</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2588</v>
+        <v>1.2591</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7762</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.76</v>
+        <v>110.79</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.61</v>
+        <v>48.615</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.02</v>
+        <v>62.94</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.5</v>
+        <v>59.44</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1713.75</v>
+        <v>1714</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6741.95</v>
+        <v>6743.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10992.52</v>
+        <v>10993.25</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17045.8</v>
+        <v>17047.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20008.2</v>
+        <v>20012.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3775</v>
+        <v>1.3779</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.83</v>
+        <v>1867.85</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.11</v>
+        <v>131.12</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.84</v>
+        <v>12.845</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10137</v>
+        <v>10139.91</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6979</v>
+        <v>0.6981000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10792.43</v>
+        <v>10794.04</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2591</v>
+        <v>1.2589</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7762</v>
+        <v>7.7764</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.79</v>
+        <v>110.78</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1131.15</v>
+        <v>1130.95</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,13 +1659,13 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.615</v>
+        <v>48.592</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
       </c>
       <c r="F23" t="n">
-        <v>48.635</v>
+        <v>48.64</v>
       </c>
       <c r="G23" t="n">
         <v>48.508</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3457</v>
+        <v>1.3456</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.94</v>
+        <v>62.98</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.44</v>
+        <v>59.45</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1714</v>
+        <v>1714.05</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16067.5</v>
+        <v>16062.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6743.95</v>
+        <v>6742.82</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10993.25</v>
+        <v>10998.33</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7569</v>
+        <v>0.7573</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17047.3</v>
+        <v>17048.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20012.5</v>
+        <v>20022.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3779</v>
+        <v>1.3785</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.85</v>
+        <v>1867.83</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10139.91</v>
+        <v>10144.26</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6981000000000001</v>
+        <v>0.6984</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10794.04</v>
+        <v>10794.84</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5742</v>
+        <v>6.5735</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.95</v>
+        <v>1130.83</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,13 +1659,13 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.592</v>
+        <v>48.596</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
       </c>
       <c r="F23" t="n">
-        <v>48.64</v>
+        <v>48.645</v>
       </c>
       <c r="G23" t="n">
         <v>48.508</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3456</v>
+        <v>1.3455</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.98</v>
+        <v>62.95</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.45</v>
+        <v>59.37</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1714.05</v>
+        <v>1715.05</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16062.5</v>
+        <v>16070</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6742.82</v>
+        <v>6745.24</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10998.33</v>
+        <v>10993.97</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7573</v>
+        <v>0.7569</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17048.7</v>
+        <v>17050.2</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1737</v>
+        <v>1.1736</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20022.7</v>
+        <v>20016.9</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3785</v>
+        <v>1.3781</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.83</v>
+        <v>1867.81</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.12</v>
+        <v>131.13</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.845</v>
+        <v>12.84</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10144.26</v>
+        <v>10141.36</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6984</v>
+        <v>0.6982</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6984</v>
+        <v>0.6987</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10794.84</v>
+        <v>10794.04</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.577</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2589</v>
+        <v>1.2593</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5735</v>
+        <v>6.5732</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7764</v>
+        <v>7.7762</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.83</v>
+        <v>1131.02</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.596</v>
+        <v>48.625</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3455</v>
+        <v>1.3456</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.265</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.95</v>
+        <v>62.97</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.37</v>
+        <v>59.38</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1715.05</v>
+        <v>1714.85</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16070</v>
+        <v>16067.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6745.24</v>
+        <v>6744.04</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.716</v>
+        <v>1.718</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10993.97</v>
+        <v>10999.78</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7569</v>
+        <v>0.7573</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17050.2</v>
+        <v>17054.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1736</v>
+        <v>1.1741</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20016.9</v>
+        <v>20022.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3781</v>
+        <v>1.3785</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.81</v>
+        <v>1867.83</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.13</v>
+        <v>131.15</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10141.36</v>
+        <v>10144.26</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6982</v>
+        <v>0.6984</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10794.04</v>
+        <v>10795.64</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.577</v>
+        <v>464.503</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2593</v>
+        <v>1.2588</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7762</v>
+        <v>7.7764</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.78</v>
+        <v>110.74</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1131.02</v>
+        <v>1130.87</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.625</v>
+        <v>48.597</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3456</v>
+        <v>1.3454</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.265</v>
+        <v>31.27</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.97</v>
+        <v>62.91</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.38</v>
+        <v>59.33</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1714.85</v>
+        <v>1717.35</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6744.04</v>
+        <v>6741.63</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.718</v>
+        <v>1.711</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10999.78</v>
+        <v>10995.42</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7573</v>
+        <v>0.757</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17054.5</v>
+        <v>17053.1</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1741</v>
+        <v>1.1743</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20022.7</v>
+        <v>20023.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.83</v>
+        <v>1867.82</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.15</v>
+        <v>131.17</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.84</v>
+        <v>12.845</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10144.26</v>
+        <v>10143.54</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6984</v>
+        <v>0.6982</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2588</v>
+        <v>1.2594</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5732</v>
+        <v>6.5729</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7764</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.87</v>
+        <v>1130.91</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.597</v>
+        <v>48.57</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3454</v>
+        <v>1.3455</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.91</v>
+        <v>62.95</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.33</v>
+        <v>59.35</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1717.35</v>
+        <v>1717.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16067.5</v>
+        <v>16055</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -1837,13 +1837,13 @@
         <v>489.79</v>
       </c>
       <c r="E30" t="n">
-        <v>488.06</v>
+        <v>490.6</v>
       </c>
       <c r="F30" t="n">
-        <v>490.59</v>
+        <v>493.36</v>
       </c>
       <c r="G30" t="n">
-        <v>487.4</v>
+        <v>487.27</v>
       </c>
     </row>
     <row r="31">
@@ -1862,13 +1862,13 @@
         <v>479.93</v>
       </c>
       <c r="E31" t="n">
-        <v>478.15</v>
+        <v>480.81</v>
       </c>
       <c r="F31" t="n">
-        <v>480.69</v>
+        <v>483.39</v>
       </c>
       <c r="G31" t="n">
-        <v>477.26</v>
+        <v>477.14</v>
       </c>
     </row>
     <row r="32">
@@ -1887,13 +1887,13 @@
         <v>1435.91</v>
       </c>
       <c r="E32" t="n">
-        <v>1393.99</v>
+        <v>1387.66</v>
       </c>
       <c r="F32" t="n">
         <v>1435.91</v>
       </c>
       <c r="G32" t="n">
-        <v>1391.55</v>
+        <v>1387.19</v>
       </c>
     </row>
     <row r="33">
@@ -1912,13 +1912,13 @@
         <v>966.99</v>
       </c>
       <c r="E33" t="n">
-        <v>965.3</v>
+        <v>969.6799999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>967.71</v>
+        <v>975.61</v>
       </c>
       <c r="G33" t="n">
-        <v>957.51</v>
+        <v>956.85</v>
       </c>
     </row>
     <row r="34">
@@ -1937,13 +1937,13 @@
         <v>957.99</v>
       </c>
       <c r="E34" t="n">
-        <v>950.79</v>
+        <v>953.17</v>
       </c>
       <c r="F34" t="n">
-        <v>962.79</v>
+        <v>963.0599999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>949.03</v>
+        <v>948.9299999999999</v>
       </c>
     </row>
     <row r="35">
@@ -1962,13 +1962,13 @@
         <v>6011.46</v>
       </c>
       <c r="E35" t="n">
-        <v>5970.59</v>
+        <v>5988.02</v>
       </c>
       <c r="F35" t="n">
-        <v>6011.46</v>
+        <v>6020.16</v>
       </c>
       <c r="G35" t="n">
-        <v>5961.2</v>
+        <v>5960.82</v>
       </c>
     </row>
     <row r="36">
@@ -1987,13 +1987,13 @@
         <v>361.2</v>
       </c>
       <c r="E36" t="n">
-        <v>362.3</v>
+        <v>363.71</v>
       </c>
       <c r="F36" t="n">
-        <v>363.32</v>
+        <v>366.55</v>
       </c>
       <c r="G36" t="n">
-        <v>358.68</v>
+        <v>358.64</v>
       </c>
     </row>
     <row r="37">
@@ -2012,13 +2012,13 @@
         <v>1691.82</v>
       </c>
       <c r="E37" t="n">
-        <v>1682.1</v>
+        <v>1693.84</v>
       </c>
       <c r="F37" t="n">
-        <v>1697.12</v>
+        <v>1700.22</v>
       </c>
       <c r="G37" t="n">
-        <v>1680.58</v>
+        <v>1680.17</v>
       </c>
     </row>
     <row r="38">
@@ -2037,13 +2037,13 @@
         <v>1370.03</v>
       </c>
       <c r="E38" t="n">
-        <v>1362.11</v>
+        <v>1357.48</v>
       </c>
       <c r="F38" t="n">
         <v>1370.03</v>
       </c>
       <c r="G38" t="n">
-        <v>1356.28</v>
+        <v>1356.26</v>
       </c>
     </row>
     <row r="39">
@@ -2062,13 +2062,13 @@
         <v>1372.9</v>
       </c>
       <c r="E39" t="n">
-        <v>1366.4</v>
+        <v>1372.05</v>
       </c>
       <c r="F39" t="n">
-        <v>1372.9</v>
+        <v>1380.3</v>
       </c>
       <c r="G39" t="n">
-        <v>1361.45</v>
+        <v>1360.77</v>
       </c>
     </row>
     <row r="40">
@@ -2087,13 +2087,13 @@
         <v>1039.82</v>
       </c>
       <c r="E40" t="n">
-        <v>1036.41</v>
+        <v>1035.74</v>
       </c>
       <c r="F40" t="n">
-        <v>1041.9</v>
+        <v>1046.98</v>
       </c>
       <c r="G40" t="n">
-        <v>1033.23</v>
+        <v>1033.21</v>
       </c>
     </row>
     <row r="41">
@@ -2112,13 +2112,13 @@
         <v>606.4400000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>601.84</v>
+        <v>605.42</v>
       </c>
       <c r="F41" t="n">
-        <v>608.47</v>
+        <v>608.83</v>
       </c>
       <c r="G41" t="n">
-        <v>601.55</v>
+        <v>601.54</v>
       </c>
     </row>
     <row r="42">
@@ -2137,13 +2137,13 @@
         <v>1279.6</v>
       </c>
       <c r="E42" t="n">
-        <v>1271.89</v>
+        <v>1277.73</v>
       </c>
       <c r="F42" t="n">
-        <v>1284.01</v>
+        <v>1284.16</v>
       </c>
       <c r="G42" t="n">
-        <v>1270.97</v>
+        <v>1270.7</v>
       </c>
     </row>
     <row r="43">
@@ -2162,13 +2162,13 @@
         <v>1782.6</v>
       </c>
       <c r="E43" t="n">
-        <v>1771.59</v>
+        <v>1776.55</v>
       </c>
       <c r="F43" t="n">
-        <v>1784.18</v>
+        <v>1791.05</v>
       </c>
       <c r="G43" t="n">
-        <v>1765.33</v>
+        <v>1765.03</v>
       </c>
     </row>
     <row r="44">
@@ -2187,13 +2187,13 @@
         <v>1003.67</v>
       </c>
       <c r="E44" t="n">
-        <v>1000.74</v>
+        <v>1002.74</v>
       </c>
       <c r="F44" t="n">
-        <v>1010.37</v>
+        <v>1011.72</v>
       </c>
       <c r="G44" t="n">
-        <v>1000.43</v>
+        <v>999.42</v>
       </c>
     </row>
     <row r="45">
@@ -2212,13 +2212,13 @@
         <v>177.92</v>
       </c>
       <c r="E45" t="n">
-        <v>176.44</v>
+        <v>176.85</v>
       </c>
       <c r="F45" t="n">
-        <v>178.21</v>
+        <v>178.25</v>
       </c>
       <c r="G45" t="n">
-        <v>176.21</v>
+        <v>176.2</v>
       </c>
     </row>
     <row r="46">
@@ -2237,13 +2237,13 @@
         <v>856.54</v>
       </c>
       <c r="E46" t="n">
-        <v>837.98</v>
+        <v>837.17</v>
       </c>
       <c r="F46" t="n">
         <v>856.54</v>
       </c>
       <c r="G46" t="n">
-        <v>837.51</v>
+        <v>836.9400000000001</v>
       </c>
     </row>
     <row r="47">
@@ -2262,13 +2262,13 @@
         <v>414.85</v>
       </c>
       <c r="E47" t="n">
-        <v>413.43</v>
+        <v>415.9</v>
       </c>
       <c r="F47" t="n">
-        <v>415.59</v>
+        <v>417.7</v>
       </c>
       <c r="G47" t="n">
-        <v>412.78</v>
+        <v>412.64</v>
       </c>
     </row>
     <row r="48">
@@ -2287,13 +2287,13 @@
         <v>901.86</v>
       </c>
       <c r="E48" t="n">
-        <v>897.8</v>
+        <v>903.0700000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>902.96</v>
+        <v>907.5</v>
       </c>
       <c r="G48" s="11" t="n">
-        <v>896.33</v>
+        <v>896.16</v>
       </c>
     </row>
     <row r="49">
@@ -2312,13 +2312,13 @@
         <v>1154.69</v>
       </c>
       <c r="E49" t="n">
-        <v>1148.69</v>
+        <v>1155.06</v>
       </c>
       <c r="F49" t="n">
-        <v>1156.14</v>
+        <v>1160.58</v>
       </c>
       <c r="G49" t="n">
-        <v>1147.59</v>
+        <v>1147.49</v>
       </c>
     </row>
     <row r="50">
@@ -2337,13 +2337,13 @@
         <v>308.05</v>
       </c>
       <c r="E50" t="n">
-        <v>306.78</v>
+        <v>308.5</v>
       </c>
       <c r="F50" t="n">
-        <v>308.44</v>
+        <v>310.03</v>
       </c>
       <c r="G50" t="n">
-        <v>306.43</v>
+        <v>306.33</v>
       </c>
     </row>
     <row r="51">
@@ -2362,13 +2362,13 @@
         <v>312.15</v>
       </c>
       <c r="E51" t="n">
-        <v>307.95</v>
+        <v>310.55</v>
       </c>
       <c r="F51" t="n">
-        <v>313.29</v>
+        <v>313.44</v>
       </c>
       <c r="G51" t="n">
-        <v>307.76</v>
+        <v>307.75</v>
       </c>
     </row>
     <row r="52">
@@ -2387,10 +2387,10 @@
         <v>293.3</v>
       </c>
       <c r="E52" t="n">
-        <v>290.96</v>
+        <v>293.39</v>
       </c>
       <c r="F52" t="n">
-        <v>293.75</v>
+        <v>294.32</v>
       </c>
       <c r="G52" t="n">
         <v>290.61</v>
@@ -2412,13 +2412,13 @@
         <v>349.37</v>
       </c>
       <c r="E53" t="n">
-        <v>348.35</v>
+        <v>350.09</v>
       </c>
       <c r="F53" t="n">
-        <v>349.98</v>
+        <v>351.89</v>
       </c>
       <c r="G53" t="n">
-        <v>347.47</v>
+        <v>347.4</v>
       </c>
     </row>
     <row r="54">
@@ -2437,10 +2437,10 @@
         <v>212.36</v>
       </c>
       <c r="E54" t="n">
-        <v>210.42</v>
+        <v>211.64</v>
       </c>
       <c r="F54" t="n">
-        <v>212.85</v>
+        <v>212.97</v>
       </c>
       <c r="G54" t="n">
         <v>210.35</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6741.63</v>
+        <v>6743.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2909,16 +2909,16 @@
         <v>44287</v>
       </c>
       <c r="D73" t="n">
-        <v>5.946</v>
+        <v>5.894</v>
       </c>
       <c r="E73" t="n">
-        <v>5.992</v>
+        <v>6.046</v>
       </c>
       <c r="F73" t="n">
-        <v>5.997</v>
+        <v>6.046</v>
       </c>
       <c r="G73" t="n">
-        <v>5.943</v>
+        <v>5.894</v>
       </c>
     </row>
     <row r="74" s="7">
@@ -2934,16 +2934,16 @@
         <v>44287</v>
       </c>
       <c r="D74" t="n">
+        <v>6.761</v>
+      </c>
+      <c r="E74" t="n">
         <v>6.84</v>
       </c>
-      <c r="E74" t="n">
-        <v>6.873</v>
-      </c>
       <c r="F74" t="n">
-        <v>6.873</v>
+        <v>6.847</v>
       </c>
       <c r="G74" t="n">
-        <v>6.84</v>
+        <v>6.761</v>
       </c>
     </row>
   </sheetData>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>10995.42</v>
+        <v>11006.32</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.757</v>
+        <v>0.7577</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17053.1</v>
+        <v>17062.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1743</v>
+        <v>1.1747</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20023.4</v>
+        <v>20028.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3785</v>
+        <v>1.3789</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.82</v>
+        <v>1867.81</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.17</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.845</v>
+        <v>12.84</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10143.54</v>
+        <v>10150.07</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6982</v>
+        <v>0.6987</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6987</v>
+        <v>0.699</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10795.64</v>
+        <v>10796.45</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2594</v>
+        <v>1.2592</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5729</v>
+        <v>6.5725</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.74</v>
+        <v>110.71</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.91</v>
+        <v>1131.07</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.57</v>
+        <v>48.573</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.95</v>
+        <v>62.81</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.35</v>
+        <v>59.19</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1717.95</v>
+        <v>1717.15</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16055</v>
+        <v>16050</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6743.95</v>
+        <v>6742.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.711</v>
+        <v>1.705</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.709</v>
+        <v>1.705</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11006.32</v>
+        <v>11010.67</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7577</v>
+        <v>0.758</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17062.5</v>
+        <v>17064</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1747</v>
+        <v>1.1748</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20028.5</v>
+        <v>20031.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3789</v>
+        <v>1.3791</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.81</v>
+        <v>1867.72</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.23</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.84</v>
+        <v>12.845</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10150.07</v>
+        <v>10151.52</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6987</v>
+        <v>0.6989</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.699</v>
+        <v>0.6991000000000001</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10796.45</v>
+        <v>10797.25</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2592</v>
+        <v>1.2585</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5725</v>
+        <v>6.572</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7768</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.71</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1131.07</v>
+        <v>1130.9</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.573</v>
+        <v>48.61</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3455</v>
+        <v>1.3453</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.81</v>
+        <v>62.92</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.19</v>
+        <v>59.33</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1717.15</v>
+        <v>1717.9</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16050</v>
+        <v>16067.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6742.95</v>
+        <v>6743.08</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11010.67</v>
+        <v>11007.78</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.758</v>
+        <v>0.7578</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17064</v>
+        <v>17063.2</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1748</v>
+        <v>1.1746</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20031.4</v>
+        <v>20023.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3791</v>
+        <v>1.3787</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.72</v>
+        <v>1867.6</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.23</v>
+        <v>131.22</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10151.52</v>
+        <v>10152.98</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6989</v>
+        <v>0.699</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10797.25</v>
+        <v>10798.05</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2585</v>
+        <v>1.2591</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.572</v>
+        <v>6.5718</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7768</v>
+        <v>7.7772</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.69</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.9</v>
+        <v>1130.64</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.61</v>
+        <v>48.6</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.92</v>
+        <v>62.96</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.33</v>
+        <v>59.38</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1717.9</v>
+        <v>1716.65</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16067.5</v>
+        <v>16065</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6743.08</v>
+        <v>6745.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.705</v>
+        <v>1.704</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.705</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11007.78</v>
+        <v>11008.5</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7578</v>
+        <v>0.7579</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17063.2</v>
+        <v>17064.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1746</v>
+        <v>1.1748</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20023.4</v>
+        <v>20030</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3787</v>
+        <v>1.379</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.22</v>
+        <v>131.23</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10152.98</v>
+        <v>10152.25</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.503</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2591</v>
+        <v>1.2586</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7772</v>
+        <v>7.7773</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.64</v>
+        <v>1130.82</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.6</v>
+        <v>48.543</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3453</v>
+        <v>1.3452</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.27</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.96</v>
+        <v>63.04</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.38</v>
+        <v>59.44</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1716.65</v>
+        <v>1719.1</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16065</v>
+        <v>16062.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6745.95</v>
+        <v>6744.67</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11008.5</v>
+        <v>11006.32</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7579</v>
+        <v>0.7578</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17064.7</v>
+        <v>17065.4</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1748</v>
+        <v>1.1749</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20030</v>
+        <v>20022</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.379</v>
+        <v>1.3785</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.23</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.845</v>
+        <v>12.85</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10152.25</v>
+        <v>10152.97</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1415,7 +1415,7 @@
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.6992</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.577</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5718</v>
+        <v>6.571</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.82</v>
+        <v>1130.55</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.543</v>
+        <v>48.566</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.265</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.04</v>
+        <v>63.12</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.44</v>
+        <v>59.55</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1719.1</v>
+        <v>1716.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16062.5</v>
+        <v>16060</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6744.67</v>
+        <v>6744.45</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.704</v>
+        <v>1.705</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11006.32</v>
+        <v>11015.76</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7578</v>
+        <v>0.7584</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17065.4</v>
+        <v>17070.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1749</v>
+        <v>1.1753</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1751</v>
+        <v>1.1754</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20022</v>
+        <v>20034.3</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3785</v>
+        <v>1.3793</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.3</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.85</v>
+        <v>12.845</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10152.97</v>
+        <v>10159.51</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.699</v>
+        <v>0.6995</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6992</v>
+        <v>0.6995</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.577</v>
+        <v>464.503</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2586</v>
+        <v>1.258</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.571</v>
+        <v>6.5709</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.69</v>
+        <v>110.64</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.55</v>
+        <v>1130.56</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.566</v>
+        <v>48.574</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.12</v>
+        <v>63.2</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.55</v>
+        <v>59.6</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1716.95</v>
+        <v>1719</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6744.45</v>
+        <v>6746.23</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11015.76</v>
+        <v>11016.49</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17070.5</v>
+        <v>17072.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20034.3</v>
+        <v>20033.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.3</v>
+        <v>131.29</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.845</v>
+        <v>12.855</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10159.51</v>
+        <v>10158.06</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6995</v>
+        <v>0.6993</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10798.05</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.503</v>
+        <v>464.577</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.258</v>
+        <v>1.2581</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5709</v>
+        <v>6.571</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7773</v>
+        <v>7.7772</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.56</v>
+        <v>1130.06</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.574</v>
+        <v>48.572</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3452</v>
+        <v>1.3449</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.265</v>
+        <v>31.27</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.2</v>
+        <v>63.12</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.6</v>
+        <v>59.59</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1719</v>
+        <v>1718.65</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16060</v>
+        <v>16055</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6746.23</v>
+        <v>6745.66</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.705</v>
+        <v>1.698</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.704</v>
+        <v>1.698</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11016.49</v>
+        <v>11010.67</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7584</v>
+        <v>0.7581</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17072.7</v>
+        <v>17062.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1753</v>
+        <v>1.1747</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20033.6</v>
+        <v>20022.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3793</v>
+        <v>1.3785</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.6</v>
+        <v>1867.61</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.29</v>
+        <v>131.24</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10158.06</v>
+        <v>10155.16</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6993</v>
+        <v>0.6992</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10798.05</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.577</v>
+        <v>464.503</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2581</v>
+        <v>1.258</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.571</v>
+        <v>6.5708</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.64</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1130.06</v>
+        <v>1129.79</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.572</v>
+        <v>48.599</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3449</v>
+        <v>1.3453</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.12</v>
+        <v>63.45</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.59</v>
+        <v>59.88</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1718.65</v>
+        <v>1718.5</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6745.66</v>
+        <v>6747.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11010.67</v>
+        <v>11012.86</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17062.5</v>
+        <v>17055.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1747</v>
+        <v>1.1743</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20022.7</v>
+        <v>20027.1</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3785</v>
+        <v>1.3788</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.24</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10155.16</v>
+        <v>10152.98</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6992</v>
+        <v>0.6991000000000001</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.503</v>
+        <v>464.428</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.258</v>
+        <v>1.2579</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5708</v>
+        <v>6.5707</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7772</v>
+        <v>7.7773</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.69</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.79</v>
+        <v>1129.99</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.599</v>
+        <v>48.61</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.27</v>
+        <v>31.28</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.45</v>
+        <v>63.75</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.88</v>
+        <v>60.2</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1718.5</v>
+        <v>1719.4</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16055</v>
+        <v>16052.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6747.95</v>
+        <v>6746.15</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.698</v>
+        <v>1.696</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.698</v>
+        <v>1.696</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11012.86</v>
+        <v>11011.41</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17055.3</v>
+        <v>17056.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20027.1</v>
+        <v>20030</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3788</v>
+        <v>1.3789</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.61</v>
+        <v>1867.6</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10152.98</v>
+        <v>10156.61</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6991000000000001</v>
+        <v>0.6992</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2579</v>
+        <v>1.2578</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5707</v>
+        <v>6.5705</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.69</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.99</v>
+        <v>1129.93</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.61</v>
+        <v>48.577</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3453</v>
+        <v>1.3452</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.28</v>
+        <v>31.27</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.75</v>
+        <v>63.61</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.2</v>
+        <v>60.11</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1719.4</v>
+        <v>1719.85</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1720.6</v>
+        <v>1720.8</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16052.5</v>
+        <v>16065</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6746.15</v>
+        <v>6744.7</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11011.41</v>
+        <v>11018.67</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7581</v>
+        <v>0.7586000000000001</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17056.7</v>
+        <v>17062.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1743</v>
+        <v>1.1746</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20030</v>
+        <v>20032.9</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3789</v>
+        <v>1.3792</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.22</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10156.61</v>
+        <v>10160.24</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6992</v>
+        <v>0.6995</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10798.05</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.428</v>
+        <v>464.503</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5705</v>
+        <v>6.5689</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7773</v>
+        <v>7.7772</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.93</v>
+        <v>1129.65</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.577</v>
+        <v>48.605</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3452</v>
+        <v>1.3449</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.61</v>
+        <v>63.76</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.11</v>
+        <v>60.19</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1719.85</v>
+        <v>1722.3</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1720.8</v>
+        <v>1722.3</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16065</v>
+        <v>16062.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6744.7</v>
+        <v>6747.85</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.696</v>
+        <v>1.698</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11018.67</v>
+        <v>11032.46</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7586000000000001</v>
+        <v>0.7596000000000001</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.7595</v>
+        <v>0.7596000000000001</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17062.5</v>
+        <v>17072</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1746</v>
+        <v>1.1753</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20032.9</v>
+        <v>20042.3</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3792</v>
+        <v>1.3798</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3796</v>
+        <v>1.3798</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.6</v>
+        <v>1867.63</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.22</v>
+        <v>131.27</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.855</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10160.24</v>
+        <v>10169.68</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10163.04</v>
+        <v>10169.68</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6995</v>
+        <v>0.7000999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6995</v>
+        <v>0.7002</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10801.26</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.503</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2578</v>
+        <v>1.2575</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5689</v>
+        <v>6.5683</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.64</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.65</v>
+        <v>1129.09</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.605</v>
+        <v>48.575</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3449</v>
+        <v>1.3448</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.27</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.76</v>
+        <v>63.8</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.19</v>
+        <v>60.35</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1722.3</v>
+        <v>1725.5</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1722.3</v>
+        <v>1726.25</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16062.5</v>
+        <v>16122.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2690,10 +2690,10 @@
         <v>1594.01</v>
       </c>
       <c r="F64" t="n">
-        <v>1600.41</v>
+        <v>1600.6</v>
       </c>
       <c r="G64" t="n">
-        <v>1590.57</v>
+        <v>1590.33</v>
       </c>
     </row>
     <row r="65">
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6747.85</v>
+        <v>6749.22</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11032.46</v>
+        <v>11028.83</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7593</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17072</v>
+        <v>17075.6</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1753</v>
+        <v>1.1756</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1754</v>
+        <v>1.1756</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20042.3</v>
+        <v>20045.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3798</v>
+        <v>1.3801</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3798</v>
+        <v>1.3804</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.63</v>
+        <v>1867.64</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.27</v>
+        <v>131.25</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10169.68</v>
+        <v>10173.31</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10169.68</v>
+        <v>10174.76</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7000999999999999</v>
+        <v>0.7003</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7002</v>
+        <v>0.7005</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10801.26</v>
+        <v>10800.46</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2575</v>
+        <v>1.2573</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5683</v>
+        <v>6.5675</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.64</v>
+        <v>110.67</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.09</v>
+        <v>1129.08</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.575</v>
+        <v>48.541</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3448</v>
+        <v>1.3449</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.8</v>
+        <v>63.86</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.35</v>
+        <v>60.39</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1725.5</v>
+        <v>1724.6</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16122.5</v>
+        <v>16125</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6749.22</v>
+        <v>6751.13</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11028.83</v>
+        <v>11031.74</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7593</v>
+        <v>0.7595</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7597</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17075.6</v>
+        <v>17077</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1756</v>
+        <v>1.1757</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1756</v>
+        <v>1.176</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20045.2</v>
+        <v>20041.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3801</v>
+        <v>1.3796</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.25</v>
+        <v>131.24</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1390,7 +1390,7 @@
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10174.76</v>
+        <v>10178.39</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7003</v>
+        <v>0.7004</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7005</v>
+        <v>0.7007</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10800.46</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2573</v>
+        <v>1.2576</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5675</v>
+        <v>6.5676</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.67</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.08</v>
+        <v>1129.19</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.541</v>
+        <v>48.58</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3449</v>
+        <v>1.3448</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.86</v>
+        <v>64.19</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,13 +1759,13 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.39</v>
+        <v>60.75</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
       </c>
       <c r="F27" t="n">
-        <v>60.65</v>
+        <v>60.8</v>
       </c>
       <c r="G27" t="n">
         <v>59.03</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1724.6</v>
+        <v>1724.4</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16125</v>
+        <v>16137.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6751.13</v>
+        <v>6751.6</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11031.74</v>
+        <v>11025.93</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7595</v>
+        <v>0.7591</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17077</v>
+        <v>17072.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1757</v>
+        <v>1.1754</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20041.6</v>
+        <v>20040.1</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3796</v>
+        <v>1.3797</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.64</v>
+        <v>1867.66</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.24</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10173.31</v>
+        <v>10168.22</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7004</v>
+        <v>0.7</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.577</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5676</v>
+        <v>6.5686</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.7</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.19</v>
+        <v>1129.05</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.58</v>
+        <v>48.537</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3448</v>
+        <v>1.3449</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.265</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>64.19</v>
+        <v>64.08</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.75</v>
+        <v>60.66</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1724.4</v>
+        <v>1723.25</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16137.5</v>
+        <v>16135</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6751.6</v>
+        <v>6752.45</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.698</v>
+        <v>1.696</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11025.93</v>
+        <v>11026.66</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7591</v>
+        <v>0.7592</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17072.7</v>
+        <v>17078.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1754</v>
+        <v>1.1758</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20040.1</v>
+        <v>20046</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3797</v>
+        <v>1.3801</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.23</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10168.22</v>
+        <v>10170.41</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7</v>
+        <v>0.7002</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10800.46</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.577</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.7</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.05</v>
+        <v>1129.06</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.537</v>
+        <v>48.591</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3449</v>
+        <v>1.3448</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.265</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>64.08</v>
+        <v>64.02</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.66</v>
+        <v>60.62</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1723.25</v>
+        <v>1723.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16135</v>
+        <v>16147.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6752.45</v>
+        <v>6750.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11026.66</v>
+        <v>11031.01</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7592</v>
+        <v>0.7595</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17078.5</v>
+        <v>17082.1</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1758</v>
+        <v>1.176</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.176</v>
+        <v>1.1761</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20046</v>
+        <v>20060.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3801</v>
+        <v>1.3811</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3804</v>
+        <v>1.3811</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.66</v>
+        <v>1867.72</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.23</v>
+        <v>131.3</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10170.41</v>
+        <v>10177.67</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7002</v>
+        <v>0.7006</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10800.46</v>
+        <v>10801.26</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2576</v>
+        <v>1.2572</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7772</v>
+        <v>7.7769</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.6</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.06</v>
+        <v>1129.3</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.591</v>
+        <v>48.575</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>64.02</v>
+        <v>64.12</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.62</v>
+        <v>60.74</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1723.95</v>
+        <v>1725.85</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,13 +1809,13 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16147.5</v>
+        <v>16152.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16157.5</v>
+        <v>16172.5</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2706,19 +2706,19 @@
         </is>
       </c>
       <c r="C65" s="11" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13246.87</v>
+        <v>13427.23</v>
       </c>
       <c r="E65" t="n">
-        <v>13122.57</v>
+        <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13325.54</v>
+        <v>13427.23</v>
       </c>
       <c r="G65" t="n">
-        <v>13118.38</v>
+        <v>13407.36</v>
       </c>
     </row>
     <row r="66">
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="C66" s="11" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>32981.55</v>
+        <v>33094.58</v>
       </c>
       <c r="E66" t="n">
-        <v>33116.04</v>
+        <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33173.77</v>
+        <v>33107.69</v>
       </c>
       <c r="G66" t="n">
-        <v>32980.57</v>
+        <v>33054.58</v>
       </c>
     </row>
     <row r="67">
@@ -2756,19 +2756,19 @@
         </is>
       </c>
       <c r="C67" s="11" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>3972.89</v>
+        <v>3999.7</v>
       </c>
       <c r="E67" t="n">
-        <v>3967.25</v>
+        <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>3994.41</v>
+        <v>3999.7</v>
       </c>
       <c r="G67" t="n">
-        <v>3966.98</v>
+        <v>3996.57</v>
       </c>
     </row>
     <row r="68">
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6750.95</v>
+        <v>6746.85</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2806,19 +2806,19 @@
         </is>
       </c>
       <c r="C69" s="11" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2220.52</v>
+        <v>2236.4</v>
       </c>
       <c r="E69" t="n">
-        <v>2200.03</v>
+        <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2237.68</v>
+        <v>2239.2</v>
       </c>
       <c r="G69" t="n">
-        <v>2200.03</v>
+        <v>2234.6</v>
       </c>
     </row>
     <row r="70">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11031.01</v>
+        <v>11031.74</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17082.1</v>
+        <v>17078.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.176</v>
+        <v>1.1758</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1761</v>
+        <v>1.1762</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1290,7 +1290,7 @@
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3811</v>
+        <v>1.3813</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.72</v>
+        <v>1867.8</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.3</v>
+        <v>131.29</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10177.67</v>
+        <v>10176.21</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7769</v>
+        <v>7.7766</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.6</v>
+        <v>110.64</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.3</v>
+        <v>1129.24</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.575</v>
+        <v>48.59</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>64.12</v>
+        <v>63.92</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,13 +1759,13 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.74</v>
+        <v>60.56</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
       </c>
       <c r="F27" t="n">
-        <v>60.8</v>
+        <v>60.82</v>
       </c>
       <c r="G27" t="n">
         <v>59.03</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1725.85</v>
+        <v>1725.25</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16152.5</v>
+        <v>16172.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13427.23</v>
+        <v>13443</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13427.23</v>
+        <v>13447.04</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33094.58</v>
+        <v>33047.45</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2743,7 +2743,7 @@
         <v>33107.69</v>
       </c>
       <c r="G66" t="n">
-        <v>33054.58</v>
+        <v>33036.34</v>
       </c>
     </row>
     <row r="67">
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>3999.7</v>
+        <v>4000.18</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>3999.7</v>
+        <v>4001.2</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6746.85</v>
+        <v>6746.62</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2236.4</v>
+        <v>2238.85</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11031.74</v>
+        <v>11037.55</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7595</v>
+        <v>0.7599</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.7597</v>
+        <v>0.76</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17078.5</v>
+        <v>17083.6</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1758</v>
+        <v>1.1761</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20060.5</v>
+        <v>20069.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3811</v>
+        <v>1.3817</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3813</v>
+        <v>1.3817</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.8</v>
+        <v>1867.82</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.29</v>
+        <v>131.3</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10176.21</v>
+        <v>10180.57</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10178.39</v>
+        <v>10181.3</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7006</v>
+        <v>0.7009</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7007</v>
+        <v>0.701</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10801.26</v>
+        <v>10802.88</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2572</v>
+        <v>1.2567</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7766</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.64</v>
+        <v>110.61</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.24</v>
+        <v>1129.18</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.59</v>
+        <v>48.526</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3448</v>
+        <v>1.3446</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.92</v>
+        <v>63.66</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.56</v>
+        <v>60.27</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1725.25</v>
+        <v>1726.15</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1726.25</v>
+        <v>1726.55</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,13 +1809,13 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16172.5</v>
+        <v>16180</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16172.5</v>
+        <v>16197.5</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13443</v>
+        <v>13447.53</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13447.04</v>
+        <v>13452.43</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33047.45</v>
+        <v>33041.45</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2743,7 +2743,7 @@
         <v>33107.69</v>
       </c>
       <c r="G66" t="n">
-        <v>33036.34</v>
+        <v>33019.04</v>
       </c>
     </row>
     <row r="67">
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4000.18</v>
+        <v>3998.93</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4001.2</v>
+        <v>4001.28</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6746.62</v>
+        <v>6742.23</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2238.85</v>
+        <v>2242.4</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2239.2</v>
+        <v>2243.5</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.696</v>
+        <v>1.691</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.696</v>
+        <v>1.691</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11037.55</v>
+        <v>11034.64</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7599</v>
+        <v>0.7597</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.76</v>
+        <v>0.7603</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17083.6</v>
+        <v>17075.6</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1761</v>
+        <v>1.1756</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1762</v>
+        <v>1.1763</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20069.2</v>
+        <v>20067.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3817</v>
+        <v>1.3816</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3817</v>
+        <v>1.3823</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.82</v>
+        <v>1867.79</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.3</v>
+        <v>131.25</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10180.57</v>
+        <v>10176.21</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10181.3</v>
+        <v>10184.21</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7009</v>
+        <v>0.7006</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.701</v>
+        <v>0.7012</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10802.88</v>
+        <v>10801.26</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2567</v>
+        <v>1.2572</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5686</v>
+        <v>6.5683</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7766</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.61</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.18</v>
+        <v>1129.5</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.526</v>
+        <v>48.595</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3446</v>
+        <v>1.3448</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.66</v>
+        <v>63.51</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.27</v>
+        <v>60.18</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1726.15</v>
+        <v>1725.25</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16180</v>
+        <v>16190</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13447.53</v>
+        <v>13460.2</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13452.43</v>
+        <v>13460.2</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33041.45</v>
+        <v>33008.24</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2743,7 +2743,7 @@
         <v>33107.69</v>
       </c>
       <c r="G66" t="n">
-        <v>33019.04</v>
+        <v>33005.81</v>
       </c>
     </row>
     <row r="67">
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>3998.93</v>
+        <v>3999.07</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6742.23</v>
+        <v>6742.22</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.4</v>
+        <v>2243.5</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2243.5</v>
+        <v>2244.7</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>
@@ -2831,19 +2831,19 @@
         </is>
       </c>
       <c r="C70" s="11" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.65</v>
+        <v>29.64</v>
       </c>
       <c r="E70" t="n">
-        <v>29.66</v>
+        <v>29.64</v>
       </c>
       <c r="F70" t="n">
-        <v>29.69</v>
+        <v>29.64</v>
       </c>
       <c r="G70" t="n">
-        <v>29.62</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="71">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11034.64</v>
+        <v>11036.83</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7597</v>
+        <v>0.7599</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17075.6</v>
+        <v>17078.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1756</v>
+        <v>1.1758</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20067.7</v>
+        <v>20071.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3816</v>
+        <v>1.3819</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.79</v>
+        <v>1867.76</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.25</v>
+        <v>131.23</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10176.21</v>
+        <v>10174.76</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7006</v>
+        <v>0.7005</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10801.26</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2572</v>
+        <v>1.2578</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5683</v>
+        <v>6.5687</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7766</v>
+        <v>7.7767</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.5</v>
+        <v>1129.55</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.595</v>
+        <v>48.561</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.51</v>
+        <v>63.59</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.18</v>
+        <v>60.2</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1725.25</v>
+        <v>1727.35</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1726.55</v>
+        <v>1728.35</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,13 +1809,13 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16190</v>
+        <v>16185</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16197.5</v>
+        <v>16202.5</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13460.2</v>
+        <v>13458.58</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13460.2</v>
+        <v>13465.84</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33008.24</v>
+        <v>33010.14</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2743,7 +2743,7 @@
         <v>33107.69</v>
       </c>
       <c r="G66" t="n">
-        <v>33005.81</v>
+        <v>32986.61</v>
       </c>
     </row>
     <row r="67">
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>3999.07</v>
+        <v>3998.95</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6742.22</v>
+        <v>6732.18</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2243.5</v>
+        <v>2240.85</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,13 +2834,13 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.64</v>
+        <v>29.66</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
       </c>
       <c r="F70" t="n">
-        <v>29.64</v>
+        <v>29.66</v>
       </c>
       <c r="G70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.691</v>
+        <v>1.696</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11036.83</v>
+        <v>11037.55</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17078.5</v>
+        <v>17079.9</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1758</v>
+        <v>1.1759</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20071.4</v>
+        <v>20080.8</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3819</v>
+        <v>1.3823</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3823</v>
+        <v>1.3827</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.76</v>
+        <v>1867.78</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.23</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10174.76</v>
+        <v>10176.94</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7005</v>
+        <v>0.7006</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10800.46</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2578</v>
+        <v>1.2572</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5687</v>
+        <v>6.569</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.69</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.55</v>
+        <v>1129.51</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.561</v>
+        <v>48.575</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.59</v>
+        <v>63.86</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.2</v>
+        <v>60.42</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.35</v>
+        <v>1727.55</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1728.35</v>
+        <v>1729</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,13 +1809,13 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16185</v>
+        <v>16192.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16202.5</v>
+        <v>16210</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13458.58</v>
+        <v>13456.8</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33010.14</v>
+        <v>32999.02</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>3998.95</v>
+        <v>3997.93</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6732.18</v>
+        <v>6732.64</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2793,7 +2793,7 @@
         <v>6767.95</v>
       </c>
       <c r="G68" t="n">
-        <v>6731.61</v>
+        <v>6728.56</v>
       </c>
     </row>
     <row r="69">
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2240.85</v>
+        <v>2239</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.66</v>
+        <v>29.65</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11037.55</v>
+        <v>11036.09</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7599</v>
+        <v>0.7597</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17079.9</v>
+        <v>17068.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1759</v>
+        <v>1.1751</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20080.8</v>
+        <v>20075</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3823</v>
+        <v>1.3821</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.78</v>
+        <v>1867.68</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.24</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10176.94</v>
+        <v>10179.12</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7006</v>
+        <v>0.7008</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2572</v>
+        <v>1.2571</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.569</v>
+        <v>6.5689</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7767</v>
+        <v>7.7769</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.51</v>
+        <v>1129.59</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.575</v>
+        <v>48.577</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.86</v>
+        <v>63.87</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.42</v>
+        <v>60.38</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.55</v>
+        <v>1725.6</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16192.5</v>
+        <v>16187.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2637,13 +2637,13 @@
         <v>50029.83</v>
       </c>
       <c r="E62" t="n">
-        <v>49868.77</v>
+        <v>49868.53</v>
       </c>
       <c r="F62" t="n">
-        <v>50087.3</v>
+        <v>50092.48</v>
       </c>
       <c r="G62" t="n">
-        <v>49478.69</v>
+        <v>49478.53</v>
       </c>
     </row>
     <row r="63">
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13456.8</v>
+        <v>13437.61</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13465.84</v>
+        <v>13465.86</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>32999.02</v>
+        <v>33052.45</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>3997.93</v>
+        <v>4000.1</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6732.64</v>
+        <v>6734.93</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17068.3</v>
+        <v>17061.1</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1751</v>
+        <v>1.1747</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20075</v>
+        <v>20080.1</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3821</v>
+        <v>1.3824</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3827</v>
+        <v>1.3828</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.68</v>
+        <v>1867.72</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.24</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10179.12</v>
+        <v>10182.03</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7008</v>
+        <v>0.701</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10800.46</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2571</v>
+        <v>1.257</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5689</v>
+        <v>6.569</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.69</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.59</v>
+        <v>1129.46</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.577</v>
+        <v>48.563</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3448</v>
+        <v>1.3449</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.87</v>
+        <v>63.97</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.38</v>
+        <v>60.49</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1725.6</v>
+        <v>1724.05</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13437.61</v>
+        <v>13472.86</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13465.86</v>
+        <v>13473.31</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33052.45</v>
+        <v>33050.35</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4000.1</v>
+        <v>4004.6</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4001.28</v>
+        <v>4004.6</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6734.93</v>
+        <v>6733.93</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2243</v>
+        <v>2246.3</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2244.7</v>
+        <v>2246.3</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.696</v>
+        <v>1.7</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11036.09</v>
+        <v>11032.46</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7597</v>
+        <v>0.7596000000000001</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17061.1</v>
+        <v>17053.8</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1747</v>
+        <v>1.1741</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20080.1</v>
+        <v>20074.3</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3824</v>
+        <v>1.3821</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3828</v>
+        <v>1.3829</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.72</v>
+        <v>1867.69</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.23</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10182.03</v>
+        <v>10179.12</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.701</v>
+        <v>0.7008</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10798.05</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.257</v>
+        <v>1.2578</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.7</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.46</v>
+        <v>1129.58</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.563</v>
+        <v>48.541</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.97</v>
+        <v>63.88</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.49</v>
+        <v>60.51</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1724.05</v>
+        <v>1723.7</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16187.5</v>
+        <v>16190</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13472.86</v>
+        <v>13478.86</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13473.31</v>
+        <v>13479.64</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33050.35</v>
+        <v>33057.04</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4004.6</v>
+        <v>4004.8</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4004.6</v>
+        <v>4005.1</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6733.93</v>
+        <v>6738.45</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2246.3</v>
+        <v>2248</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2246.3</v>
+        <v>2248.25</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11032.46</v>
+        <v>11036.83</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7599</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17053.8</v>
+        <v>17056.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1741</v>
+        <v>1.1743</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20074.3</v>
+        <v>20071.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3821</v>
+        <v>1.3819</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.69</v>
+        <v>1867.72</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.23</v>
+        <v>131.18</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10179.12</v>
+        <v>10178.39</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7008</v>
+        <v>0.7007</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10798.05</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2578</v>
+        <v>1.2576</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.7</v>
+        <v>110.71</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.58</v>
+        <v>1129.52</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.541</v>
+        <v>48.625</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.88</v>
+        <v>63.84</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.51</v>
+        <v>60.41</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1723.7</v>
+        <v>1724.7</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16190</v>
+        <v>16185</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,13 +2709,13 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13478.86</v>
+        <v>13475.95</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
       </c>
       <c r="F65" t="n">
-        <v>13479.64</v>
+        <v>13486.95</v>
       </c>
       <c r="G65" t="n">
         <v>13407.36</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33057.04</v>
+        <v>33055.72</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4004.8</v>
+        <v>4004.72</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4005.1</v>
+        <v>4006.3</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6738.45</v>
+        <v>6742.09</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2248</v>
+        <v>2247.7</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2248.25</v>
+        <v>2248.45</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11036.83</v>
+        <v>11038.28</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17056.7</v>
+        <v>17057.4</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20071.4</v>
+        <v>20072.1</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.72</v>
+        <v>1867.73</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10178.39</v>
+        <v>10179.12</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10798.05</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2576</v>
+        <v>1.2578</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7769</v>
+        <v>7.7768</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.71</v>
+        <v>110.72</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.52</v>
+        <v>1129.51</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3449</v>
+        <v>1.345</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.84</v>
+        <v>63.98</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.41</v>
+        <v>60.52</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1724.7</v>
+        <v>1724.85</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16185</v>
+        <v>16187.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13475.95</v>
+        <v>13471.12</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33055.72</v>
+        <v>33044.23</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4004.72</v>
+        <v>4005.21</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6742.09</v>
+        <v>6745.5</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2247.7</v>
+        <v>2247</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.65</v>
+        <v>29.66</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11038.28</v>
+        <v>11040.46</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7599</v>
+        <v>0.7601</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17057.4</v>
+        <v>17059.6</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1743</v>
+        <v>1.1745</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20072.1</v>
+        <v>20066.3</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3819</v>
+        <v>1.3815</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.18</v>
+        <v>131.21</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10179.12</v>
+        <v>10180.58</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7007</v>
+        <v>0.7009</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2578</v>
+        <v>1.2576</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.569</v>
+        <v>6.5685</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7768</v>
+        <v>7.777</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.72</v>
+        <v>110.69</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.51</v>
+        <v>1129.57</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,13 +1659,13 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.625</v>
+        <v>48.593</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
       </c>
       <c r="F23" t="n">
-        <v>48.645</v>
+        <v>48.65</v>
       </c>
       <c r="G23" t="n">
         <v>48.508</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.345</v>
+        <v>1.3449</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.98</v>
+        <v>63.91</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.52</v>
+        <v>60.47</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1724.85</v>
+        <v>1727.45</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16187.5</v>
+        <v>16182.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13471.12</v>
+        <v>13471.38</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33044.23</v>
+        <v>33040.88</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4005.21</v>
+        <v>4005.71</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4006.3</v>
+        <v>4007.1</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6745.5</v>
+        <v>6744.15</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2247</v>
+        <v>2242.35</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2248.45</v>
+        <v>2248.55</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>
@@ -2834,13 +2834,13 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.66</v>
+        <v>29.67</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
       </c>
       <c r="F70" t="n">
-        <v>29.66</v>
+        <v>29.67</v>
       </c>
       <c r="G70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.7</v>
+        <v>1.691</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11040.46</v>
+        <v>11041.91</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7601</v>
+        <v>0.7602</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.7603</v>
+        <v>0.7605</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17059.6</v>
+        <v>17058.9</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20066.3</v>
+        <v>20064.8</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3815</v>
+        <v>1.3813</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.73</v>
+        <v>1867.74</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.21</v>
+        <v>131.24</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10180.58</v>
+        <v>10182.75</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10184.21</v>
+        <v>10185.66</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7009</v>
+        <v>0.701</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7012</v>
+        <v>0.7013</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1434,7 +1434,7 @@
         <v>44287</v>
       </c>
       <c r="D14" t="n">
-        <v>3872.92</v>
+        <v>3873.08</v>
       </c>
       <c r="E14" t="n">
         <v>3872.2</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10798.05</v>
+        <v>10799.66</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.875</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2576</v>
+        <v>1.258</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5685</v>
+        <v>6.5683</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.777</v>
+        <v>7.7768</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.69</v>
+        <v>110.68</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.57</v>
+        <v>1129.38</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.593</v>
+        <v>48.61</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3449</v>
+        <v>1.345</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.245</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.91</v>
+        <v>63.33</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.47</v>
+        <v>59.84</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.45</v>
+        <v>1728.85</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1729</v>
+        <v>1729.25</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16182.5</v>
+        <v>16180</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13471.38</v>
+        <v>13472.79</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33040.88</v>
+        <v>33047.15</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4005.71</v>
+        <v>4005.8</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4007.1</v>
+        <v>4007.3</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6744.15</v>
+        <v>6744.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.35</v>
+        <v>2245.3</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11041.91</v>
+        <v>11033.92</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7602</v>
+        <v>0.7596000000000001</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17058.9</v>
+        <v>17059.6</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20064.8</v>
+        <v>20059</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3813</v>
+        <v>1.381</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.855</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10182.75</v>
+        <v>10182.03</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10799.66</v>
+        <v>10798.46</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.875</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.258</v>
+        <v>1.2584</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5683</v>
+        <v>6.568</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.38</v>
+        <v>1129.69</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.61</v>
+        <v>48.615</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.345</v>
+        <v>1.3452</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.245</v>
+        <v>31.255</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.33</v>
+        <v>62.69</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.84</v>
+        <v>59.12</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1728.85</v>
+        <v>1727.15</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16180</v>
+        <v>16155</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13472.79</v>
+        <v>13485.75</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33047.15</v>
+        <v>33057.04</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4005.8</v>
+        <v>4007.16</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4007.3</v>
+        <v>4007.4</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6744.95</v>
+        <v>6743.03</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2245.3</v>
+        <v>2248.35</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,13 +2834,13 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.67</v>
+        <v>29.68</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
       </c>
       <c r="F70" t="n">
-        <v>29.67</v>
+        <v>29.68</v>
       </c>
       <c r="G70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.691</v>
+        <v>1.689</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.691</v>
+        <v>1.689</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11033.92</v>
+        <v>11037.55</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7596000000000001</v>
+        <v>0.7599</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17059.6</v>
+        <v>17066.9</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1745</v>
+        <v>1.175</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20059</v>
+        <v>20060.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.381</v>
+        <v>1.3811</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.74</v>
+        <v>1867.75</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.855</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10182.03</v>
+        <v>10182.75</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.701</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10798.46</v>
+        <v>10798.05</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2584</v>
+        <v>1.2582</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.69</v>
+        <v>1129.44</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.615</v>
+        <v>48.579</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.69</v>
+        <v>62.7</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1743,7 +1743,7 @@
         <v>64.23</v>
       </c>
       <c r="G26" t="n">
-        <v>62.53</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="27">
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.12</v>
+        <v>59.11</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1768,7 +1768,7 @@
         <v>60.82</v>
       </c>
       <c r="G27" t="n">
-        <v>59.03</v>
+        <v>58.93</v>
       </c>
     </row>
     <row r="28">
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.15</v>
+        <v>1727.7</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16155</v>
+        <v>16117.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13485.75</v>
+        <v>13477.12</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33057.04</v>
+        <v>33065.19</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4007.16</v>
+        <v>4006.95</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4007.4</v>
+        <v>4007.6</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6743.03</v>
+        <v>6741.95</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,13 +2809,13 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2248.35</v>
+        <v>2246.5</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
       </c>
       <c r="F69" t="n">
-        <v>2248.55</v>
+        <v>2249.35</v>
       </c>
       <c r="G69" t="n">
         <v>2234.6</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11037.55</v>
+        <v>11040.46</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7599</v>
+        <v>0.7602</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17066.9</v>
+        <v>17079.2</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.175</v>
+        <v>1.1759</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20060.5</v>
+        <v>20077.9</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3811</v>
+        <v>1.3823</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.75</v>
+        <v>1867.73</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.24</v>
+        <v>131.34</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.855</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10182.75</v>
+        <v>10185.66</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10185.66</v>
+        <v>10186.38</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.7013</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10798.05</v>
+        <v>10801.26</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2582</v>
+        <v>1.2579</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7768</v>
+        <v>7.7769</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.68</v>
+        <v>110.61</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.44</v>
+        <v>1129.52</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.579</v>
+        <v>48.603</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3452</v>
+        <v>1.3448</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.7</v>
+        <v>62.67</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1743,7 +1743,7 @@
         <v>64.23</v>
       </c>
       <c r="G26" t="n">
-        <v>62.5</v>
+        <v>62.45</v>
       </c>
     </row>
     <row r="27">
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.11</v>
+        <v>59.19</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1768,7 +1768,7 @@
         <v>60.82</v>
       </c>
       <c r="G27" t="n">
-        <v>58.93</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="28">
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.7</v>
+        <v>1728.9</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16117.5</v>
+        <v>16140</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13477.12</v>
+        <v>13466.53</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33065.19</v>
+        <v>33042.02</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4006.95</v>
+        <v>4004.17</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6741.95</v>
+        <v>6736.96</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2246.5</v>
+        <v>2242.55</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.689</v>
+        <v>1.688</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.689</v>
+        <v>1.688</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11040.46</v>
+        <v>11043.36</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7602</v>
+        <v>0.7603</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17079.2</v>
+        <v>17084.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1759</v>
+        <v>1.1761</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1763</v>
+        <v>1.1765</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3823</v>
+        <v>1.3822</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.73</v>
+        <v>1867.72</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.855</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10185.66</v>
+        <v>10186.38</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10186.38</v>
+        <v>10190.74</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1415,7 +1415,7 @@
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7013</v>
+        <v>0.7016</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10801.26</v>
+        <v>10800.87</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.651</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2579</v>
+        <v>1.2573</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.568</v>
+        <v>6.5658</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.61</v>
+        <v>110.58</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1618,7 +1618,7 @@
         <v>110.85</v>
       </c>
       <c r="G21" t="n">
-        <v>110.57</v>
+        <v>110.56</v>
       </c>
     </row>
     <row r="22">
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.52</v>
+        <v>1129.57</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.603</v>
+        <v>48.61</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3448</v>
+        <v>1.3447</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.255</v>
+        <v>31.26</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.67</v>
+        <v>62.95</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.19</v>
+        <v>59.52</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1728.9</v>
+        <v>1729.65</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1729.25</v>
+        <v>1730.35</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16140</v>
+        <v>16127.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13466.53</v>
+        <v>13455.36</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33042.02</v>
+        <v>33079.16</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4004.17</v>
+        <v>4006.59</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6736.96</v>
+        <v>6735.65</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.55</v>
+        <v>2240.8</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.688</v>
+        <v>1.686</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.688</v>
+        <v>1.686</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11043.36</v>
+        <v>11044.82</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17084.3</v>
+        <v>17078.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1761</v>
+        <v>1.1758</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20077.9</v>
+        <v>20073.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3822</v>
+        <v>1.382</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.72</v>
+        <v>1867.9</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.34</v>
+        <v>131.32</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10186.38</v>
+        <v>10184.93</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7013</v>
+        <v>0.7012</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10800.87</v>
+        <v>10801.67</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.651</v>
+        <v>464.725</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2573</v>
+        <v>1.2572</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5658</v>
+        <v>6.5662</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7769</v>
+        <v>7.7762</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.58</v>
+        <v>110.61</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.57</v>
+        <v>1129.7</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.61</v>
+        <v>48.595</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3447</v>
+        <v>1.3446</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.26</v>
+        <v>31.245</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.95</v>
+        <v>63.31</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.52</v>
+        <v>59.84</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.65</v>
+        <v>1730.7</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1730.35</v>
+        <v>1730.75</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16127.5</v>
+        <v>16145</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13455.36</v>
+        <v>13469.53</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33079.16</v>
+        <v>33101.39</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4006.59</v>
+        <v>4008.06</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4007.6</v>
+        <v>4009.8</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6735.65</v>
+        <v>6736.98</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2240.8</v>
+        <v>2242.1</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11044.82</v>
+        <v>11046.99</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7603</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.7605</v>
+        <v>0.7608</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17078.5</v>
+        <v>17077</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20073.6</v>
+        <v>20080.8</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.382</v>
+        <v>1.3825</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.9</v>
+        <v>1867.85</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.32</v>
+        <v>131.34</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10184.93</v>
+        <v>10186.38</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10190.74</v>
+        <v>10192.2</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7012</v>
+        <v>0.7013</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7016</v>
+        <v>0.7017</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10801.67</v>
+        <v>10802.47</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.725</v>
+        <v>464.875</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2572</v>
+        <v>1.2568</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7762</v>
+        <v>7.7764</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.7</v>
+        <v>1129.49</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.595</v>
+        <v>48.601</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.31</v>
+        <v>63.25</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.84</v>
+        <v>59.76</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1730.7</v>
+        <v>1729.55</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16145</v>
+        <v>16147.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13469.53</v>
+        <v>13449.39</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33101.39</v>
+        <v>33096.16</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4008.06</v>
+        <v>4006.5</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6736.98</v>
+        <v>6741.15</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.1</v>
+        <v>2236.5</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,13 +2834,13 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.68</v>
+        <v>29.69</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
       </c>
       <c r="F70" t="n">
-        <v>29.68</v>
+        <v>29.69</v>
       </c>
       <c r="G70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.686</v>
+        <v>1.682</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.686</v>
+        <v>1.682</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11046.99</v>
+        <v>11047.71</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17077</v>
+        <v>17087.2</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1758</v>
+        <v>1.1764</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1765</v>
+        <v>1.1766</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20080.8</v>
+        <v>20082.3</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3825</v>
+        <v>1.3826</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.85</v>
+        <v>1867.86</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.34</v>
+        <v>131.33</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10802.47</v>
+        <v>10802.87</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.875</v>
+        <v>465.023</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2568</v>
+        <v>1.2562</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5662</v>
+        <v>6.5665</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7764</v>
+        <v>7.7762</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.49</v>
+        <v>1129.41</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.601</v>
+        <v>48.59</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3446</v>
+        <v>1.3445</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.245</v>
+        <v>31.23</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.25</v>
+        <v>63.16</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.76</v>
+        <v>59.73</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.55</v>
+        <v>1729.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16147.5</v>
+        <v>16160</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13449.39</v>
+        <v>13443.66</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33096.16</v>
+        <v>33106.92</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4006.5</v>
+        <v>4007.02</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6741.15</v>
+        <v>6739.29</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2236.5</v>
+        <v>2238.5</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11047.71</v>
+        <v>11048.44</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17087.2</v>
+        <v>17088.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1764</v>
+        <v>1.1765</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1766</v>
+        <v>1.1768</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20082.3</v>
+        <v>20085.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3826</v>
+        <v>1.3828</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.86</v>
+        <v>1867.81</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.33</v>
+        <v>131.34</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10186.38</v>
+        <v>10185.66</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10802.87</v>
+        <v>10803.67</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>465.023</v>
+        <v>464.949</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2562</v>
+        <v>1.256</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7762</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.41</v>
+        <v>1129.4</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.59</v>
+        <v>48.571</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3445</v>
+        <v>1.3444</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.23</v>
+        <v>31.24</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.16</v>
+        <v>62.77</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.73</v>
+        <v>59.3</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.95</v>
+        <v>1729.7</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1730.75</v>
+        <v>1730.95</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13443.66</v>
+        <v>13443.97</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,13 +2734,13 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33106.92</v>
+        <v>33103.07</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33107.69</v>
+        <v>33112.26</v>
       </c>
       <c r="G66" t="n">
         <v>32986.61</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4007.02</v>
+        <v>4007.82</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6739.29</v>
+        <v>6741.98</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2238.5</v>
+        <v>2239.6</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,13 +2834,13 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.69</v>
+        <v>29.7</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
       </c>
       <c r="F70" t="n">
-        <v>29.69</v>
+        <v>29.7</v>
       </c>
       <c r="G70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.682</v>
+        <v>1.679</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.682</v>
+        <v>1.679</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11048.44</v>
+        <v>11046.26</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7606000000000001</v>
+        <v>0.7605</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17088.7</v>
+        <v>17087.2</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20085.2</v>
+        <v>20086.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3828</v>
+        <v>1.3829</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.81</v>
+        <v>1867.78</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.34</v>
+        <v>131.31</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10185.66</v>
+        <v>10183.48</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7013</v>
+        <v>0.7010999999999999</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10803.67</v>
+        <v>10803.28</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.949</v>
+        <v>465.098</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.256</v>
+        <v>1.2569</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7766</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.4</v>
+        <v>1129.06</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.571</v>
+        <v>48.593</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3444</v>
+        <v>1.3445</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.24</v>
+        <v>31.23</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.77</v>
+        <v>62.59</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.3</v>
+        <v>59.19</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,13 +1784,13 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.7</v>
+        <v>1730.45</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
       </c>
       <c r="F28" t="n">
-        <v>1730.95</v>
+        <v>1731.05</v>
       </c>
       <c r="G28" t="n">
         <v>1706.4</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13443.97</v>
+        <v>13440.9</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,13 +2734,13 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33103.07</v>
+        <v>33088.41</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33112.26</v>
+        <v>33113.55</v>
       </c>
       <c r="G66" t="n">
         <v>32986.61</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4007.82</v>
+        <v>4006.1</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6741.98</v>
+        <v>6741.64</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2239.6</v>
+        <v>2236.3</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2818,7 +2818,7 @@
         <v>2249.35</v>
       </c>
       <c r="G69" t="n">
-        <v>2234.6</v>
+        <v>2234.1</v>
       </c>
     </row>
     <row r="70">
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.7</v>
+        <v>29.69</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11046.26</v>
+        <v>11044.82</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7605</v>
+        <v>0.7604</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17087.2</v>
+        <v>17090.1</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1765</v>
+        <v>1.1767</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20086.6</v>
+        <v>20091.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3829</v>
+        <v>1.3832</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3829</v>
+        <v>1.3833</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.78</v>
+        <v>1867.8</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10183.48</v>
+        <v>10184.93</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7010999999999999</v>
+        <v>0.7012</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10803.28</v>
+        <v>10802.87</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>465.098</v>
+        <v>464.949</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2569</v>
+        <v>1.2564</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1534,7 +1534,7 @@
         <v>44287</v>
       </c>
       <c r="D18" t="n">
-        <v>6.5665</v>
+        <v>6.5652</v>
       </c>
       <c r="E18" t="n">
         <v>6.5555</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7766</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.06</v>
+        <v>1129.16</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.593</v>
+        <v>48.543</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3445</v>
+        <v>1.3444</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.23</v>
+        <v>31.24</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.59</v>
+        <v>62.67</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.19</v>
+        <v>59.25</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1730.45</v>
+        <v>1728.85</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16160</v>
+        <v>16162.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13440.9</v>
+        <v>13451.48</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33088.41</v>
+        <v>33095.02</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4006.1</v>
+        <v>4007.33</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6741.64</v>
+        <v>6740.66</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2236.3</v>
+        <v>2240.9</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.679</v>
+        <v>1.681</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11044.82</v>
+        <v>11046.99</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7604</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17090.1</v>
+        <v>17090.8</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1240,7 +1240,7 @@
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1768</v>
+        <v>1.1769</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20091.7</v>
+        <v>20093.9</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,13 +1284,13 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3832</v>
+        <v>1.3834</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3833</v>
+        <v>1.3834</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.8</v>
+        <v>1867.78</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10184.93</v>
+        <v>10185.66</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7012</v>
+        <v>0.7013</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10802.87</v>
+        <v>10803.67</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2564</v>
+        <v>1.2562</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.16</v>
+        <v>1129.15</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.543</v>
+        <v>48.6</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>62.67</v>
+        <v>63.12</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.25</v>
+        <v>59.71</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1728.85</v>
+        <v>1729.45</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13451.48</v>
+        <v>13440.31</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33095.02</v>
+        <v>33088.49</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4007.33</v>
+        <v>4005.09</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2784,7 +2784,7 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6740.66</v>
+        <v>6737.16</v>
       </c>
       <c r="E68" t="n">
         <v>6746.35</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2240.9</v>
+        <v>2239.8</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17090.8</v>
+        <v>17090.1</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1767</v>
+        <v>1.1766</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20093.9</v>
+        <v>20083.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3834</v>
+        <v>1.3827</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.78</v>
+        <v>1867.8</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.31</v>
+        <v>131.29</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.86</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10185.66</v>
+        <v>10187.84</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7013</v>
+        <v>0.7015</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.61</v>
+        <v>110.62</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.15</v>
+        <v>1129.19</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.6</v>
+        <v>48.58</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.12</v>
+        <v>63.06</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.71</v>
+        <v>59.64</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.45</v>
+        <v>1730.65</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16162.5</v>
+        <v>16172.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13440.31</v>
+        <v>13428.24</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33088.49</v>
+        <v>33105.15</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4005.09</v>
+        <v>4005.58</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2239.8</v>
+        <v>2238.3</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.69</v>
+        <v>29.68</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.681</v>
+        <v>1.682</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11046.99</v>
+        <v>11048.44</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17090.1</v>
+        <v>17096.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1766</v>
+        <v>1.177</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1769</v>
+        <v>1.177</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20083.7</v>
+        <v>20086.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3827</v>
+        <v>1.3829</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.8</v>
+        <v>1867.82</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.29</v>
+        <v>131.31</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10187.84</v>
+        <v>10190.74</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7015</v>
+        <v>0.7016</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10803.67</v>
+        <v>10804.48</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2562</v>
+        <v>1.2564</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.62</v>
+        <v>110.6</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.19</v>
+        <v>1129.31</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.58</v>
+        <v>48.583</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3444</v>
+        <v>1.3445</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.06</v>
+        <v>63.37</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.64</v>
+        <v>59.91</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1730.65</v>
+        <v>1730.75</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16172.5</v>
+        <v>16170</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13428.24</v>
+        <v>13429.68</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33105.15</v>
+        <v>33099.27</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4005.58</v>
+        <v>4005.81</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2238.3</v>
+        <v>2237.6</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,13 +1159,13 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11048.44</v>
+        <v>11049.89</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>11052.28</v>
+        <v>11052.8</v>
       </c>
       <c r="G3" s="8" t="n">
         <v>10976.54</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7606000000000001</v>
+        <v>0.7607</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.7608</v>
+        <v>0.761</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17096.7</v>
+        <v>17100.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.177</v>
+        <v>1.1774</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.177</v>
+        <v>1.1774</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20086.6</v>
+        <v>20088.8</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3829</v>
+        <v>1.383</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.82</v>
+        <v>1867.84</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.31</v>
+        <v>131.34</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10190.74</v>
+        <v>10190.01</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7016</v>
+        <v>0.7015</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10804.48</v>
+        <v>10804.88</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7764</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.31</v>
+        <v>1129.19</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.583</v>
+        <v>48.551</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3445</v>
+        <v>1.3443</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.37</v>
+        <v>63.21</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.91</v>
+        <v>59.77</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1730.75</v>
+        <v>1729.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16170</v>
+        <v>16162.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13429.68</v>
+        <v>13444.16</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33099.27</v>
+        <v>33102.95</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4005.81</v>
+        <v>4007.1</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2237.6</v>
+        <v>2241.35</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.68</v>
+        <v>29.69</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.682</v>
+        <v>1.681</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11049.89</v>
+        <v>11049.17</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17100.3</v>
+        <v>17101</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1774</v>
+        <v>1.1772</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20088.8</v>
+        <v>20083.7</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.383</v>
+        <v>1.3827</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.84</v>
+        <v>1867.81</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.86</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10190.01</v>
+        <v>10188.57</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7015</v>
+        <v>0.7014</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>464.949</v>
+        <v>465.023</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2564</v>
+        <v>1.2568</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7764</v>
+        <v>7.7765</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.19</v>
+        <v>1128.85</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.551</v>
+        <v>48.6</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3443</v>
+        <v>1.3444</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.24</v>
+        <v>31.235</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.21</v>
+        <v>63.13</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.77</v>
+        <v>59.7</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.95</v>
+        <v>1728.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16162.5</v>
+        <v>16205</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13444.16</v>
+        <v>13442.82</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,13 +2734,13 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33102.95</v>
+        <v>33115.19</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33113.55</v>
+        <v>33115.95</v>
       </c>
       <c r="G66" t="n">
         <v>32986.61</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4007.1</v>
+        <v>4007.72</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2241.35</v>
+        <v>2239.8</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11049.17</v>
+        <v>11045.54</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7607</v>
+        <v>0.7605</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17101</v>
+        <v>17097.4</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1772</v>
+        <v>1.177</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20083.7</v>
+        <v>20085.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3827</v>
+        <v>1.3828</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10188.57</v>
+        <v>10184.93</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7014</v>
+        <v>0.7012</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10804.88</v>
+        <v>10804.48</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2568</v>
+        <v>1.2566</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.85</v>
+        <v>1128.99</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.6</v>
+        <v>48.58</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3444</v>
+        <v>1.3443</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.13</v>
+        <v>63.27</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.7</v>
+        <v>59.83</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1728.95</v>
+        <v>1729.05</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,13 +1809,13 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16205</v>
+        <v>16197.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16210</v>
+        <v>16230</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13442.82</v>
+        <v>13447.77</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,13 +2734,13 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33115.19</v>
+        <v>33126.32</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33115.95</v>
+        <v>33126.85</v>
       </c>
       <c r="G66" t="n">
         <v>32986.61</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4007.72</v>
+        <v>4009.1</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2239.8</v>
+        <v>2240.85</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.681</v>
+        <v>1.673</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>
@@ -2893,7 +2893,7 @@
         <v>1.753</v>
       </c>
       <c r="G72" t="n">
-        <v>1.679</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="73" s="7">

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11045.54</v>
+        <v>11049.89</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7605</v>
+        <v>0.7607</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17097.4</v>
+        <v>17098.8</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.177</v>
+        <v>1.1772</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20085.2</v>
+        <v>20089.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3828</v>
+        <v>1.3831</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.87</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10184.93</v>
+        <v>10187.83</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7012</v>
+        <v>0.7013</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10804.48</v>
+        <v>10805.29</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2566</v>
+        <v>1.256</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.99</v>
+        <v>1129.01</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.58</v>
+        <v>48.605</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3443</v>
+        <v>1.3442</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1693,7 +1693,7 @@
         <v>1.348</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3443</v>
+        <v>1.3442</v>
       </c>
     </row>
     <row r="25">
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.27</v>
+        <v>63.7</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>59.83</v>
+        <v>60.36</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1729.05</v>
+        <v>1728.35</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16197.5</v>
+        <v>16225</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13447.77</v>
+        <v>13451.36</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,13 +2734,13 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33126.32</v>
+        <v>33137.24</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33126.85</v>
+        <v>33142.71</v>
       </c>
       <c r="G66" t="n">
         <v>32986.61</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4009.1</v>
+        <v>4010.74</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4009.8</v>
+        <v>4010.8</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2784,16 +2784,16 @@
         <v>44287</v>
       </c>
       <c r="D68" t="n">
-        <v>6737.16</v>
+        <v>6737.3</v>
       </c>
       <c r="E68" t="n">
-        <v>6746.35</v>
+        <v>6713.63</v>
       </c>
       <c r="F68" t="n">
-        <v>6767.95</v>
+        <v>6766.52</v>
       </c>
       <c r="G68" t="n">
-        <v>6728.56</v>
+        <v>6713.63</v>
       </c>
     </row>
     <row r="69">
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2240.85</v>
+        <v>2242.15</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7607</v>
+        <v>0.7608</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20089.5</v>
+        <v>20093.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3831</v>
+        <v>1.3834</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.81</v>
+        <v>1867.88</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.34</v>
+        <v>131.35</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.87</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10187.83</v>
+        <v>10187.84</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10805.29</v>
+        <v>10805.28</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.256</v>
+        <v>1.2559</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7765</v>
+        <v>7.7762</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.6</v>
+        <v>110.58</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1129.01</v>
+        <v>1128.84</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3442</v>
+        <v>1.3443</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1693,7 +1693,7 @@
         <v>1.348</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3442</v>
+        <v>1.3441</v>
       </c>
     </row>
     <row r="25">
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.7</v>
+        <v>63.62</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.36</v>
+        <v>60.22</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1728.35</v>
+        <v>1727.75</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1815,7 +1815,7 @@
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16230</v>
+        <v>16232.5</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13451.36</v>
+        <v>13443.27</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,13 +2734,13 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33137.24</v>
+        <v>33139.45</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
       </c>
       <c r="F66" t="n">
-        <v>33142.71</v>
+        <v>33150.89</v>
       </c>
       <c r="G66" t="n">
         <v>32986.61</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4010.74</v>
+        <v>4009.22</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4010.8</v>
+        <v>4011.1</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.15</v>
+        <v>2242.1</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.673</v>
+        <v>1.675</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,13 +1159,13 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11049.89</v>
+        <v>11053.53</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>11052.8</v>
+        <v>11054.25</v>
       </c>
       <c r="G3" s="8" t="n">
         <v>10976.54</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7608</v>
+        <v>0.761</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17098.8</v>
+        <v>17096.7</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1772</v>
+        <v>1.177</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1290,7 +1290,7 @@
         <v>1.3786</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3834</v>
+        <v>1.3836</v>
       </c>
       <c r="G8" t="n">
         <v>1.3747</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.35</v>
+        <v>131.37</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.865</v>
+        <v>12.87</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10187.84</v>
+        <v>10190.74</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7013</v>
+        <v>0.7016</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10805.28</v>
+        <v>10806.08</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2559</v>
+        <v>1.2558</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.58</v>
+        <v>110.56</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.84</v>
+        <v>1128.82</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.605</v>
+        <v>48.54</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3443</v>
+        <v>1.3441</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.62</v>
+        <v>63.78</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.22</v>
+        <v>60.39</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.75</v>
+        <v>1726.45</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16225</v>
+        <v>16220</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13443.27</v>
+        <v>13455.44</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33139.45</v>
+        <v>33140.86</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4009.22</v>
+        <v>4010.94</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4011.1</v>
+        <v>4011.4</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.1</v>
+        <v>2244.3</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.675</v>
+        <v>1.677</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,13 +1159,13 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11053.53</v>
+        <v>11057.16</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>11054.25</v>
+        <v>11060.79</v>
       </c>
       <c r="G3" s="8" t="n">
         <v>10976.54</v>
@@ -1184,13 +1184,13 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.761</v>
+        <v>0.7613</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
       </c>
       <c r="F4" s="8" t="n">
-        <v>0.761</v>
+        <v>0.7615</v>
       </c>
       <c r="G4" s="8" t="n">
         <v>0.7533</v>
@@ -1209,13 +1209,13 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17096.7</v>
+        <v>17108.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>17105.5</v>
+        <v>17110.5</v>
       </c>
       <c r="G5" s="9" t="n">
         <v>17024.8</v>
@@ -1234,13 +1234,13 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.177</v>
+        <v>1.1779</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>1.1774</v>
+        <v>1.178</v>
       </c>
       <c r="G6" s="9" t="n">
         <v>1.1714</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20093.2</v>
+        <v>20094.6</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3834</v>
+        <v>1.3835</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.37</v>
+        <v>131.38</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1359,7 +1359,7 @@
         <v>44287</v>
       </c>
       <c r="D11" t="n">
-        <v>12.87</v>
+        <v>12.865</v>
       </c>
       <c r="E11" t="n">
         <v>12.885</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10190.74</v>
+        <v>10192.2</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10192.2</v>
+        <v>10195.09</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1409,13 +1409,13 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7016</v>
+        <v>0.7017</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7017</v>
+        <v>0.7019</v>
       </c>
       <c r="G13" t="n">
         <v>0.6946</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10806.08</v>
+        <v>10806.89</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2558</v>
+        <v>1.2556</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1518,7 +1518,7 @@
         <v>1.2602</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2555</v>
+        <v>1.2553</v>
       </c>
     </row>
     <row r="18">
@@ -1618,7 +1618,7 @@
         <v>110.85</v>
       </c>
       <c r="G21" t="n">
-        <v>110.56</v>
+        <v>110.54</v>
       </c>
     </row>
     <row r="22">
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.82</v>
+        <v>1128.77</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.54</v>
+        <v>48.543</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1693,7 +1693,7 @@
         <v>1.348</v>
       </c>
       <c r="G24" t="n">
-        <v>1.3441</v>
+        <v>1.344</v>
       </c>
     </row>
     <row r="25">
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.78</v>
+        <v>63.75</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.39</v>
+        <v>60.36</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1726.45</v>
+        <v>1727.05</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16220</v>
+        <v>16215</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13455.44</v>
+        <v>13453.93</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33140.86</v>
+        <v>33142.87</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4010.94</v>
+        <v>4011.8</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4011.4</v>
+        <v>4011.8</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2244.3</v>
+        <v>2246.2</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11057.16</v>
+        <v>11055.71</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7613</v>
+        <v>0.7612</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17108.3</v>
+        <v>17103.2</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1779</v>
+        <v>1.1774</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20094.6</v>
+        <v>20089.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3835</v>
+        <v>1.3831</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.88</v>
+        <v>1867.89</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.38</v>
+        <v>131.32</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10806.89</v>
+        <v>10806.49</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2556</v>
+        <v>1.2555</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1518,7 +1518,7 @@
         <v>1.2602</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2553</v>
+        <v>1.2552</v>
       </c>
     </row>
     <row r="18">
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.56</v>
+        <v>110.6</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.75</v>
+        <v>63.97</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.36</v>
+        <v>60.58</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.05</v>
+        <v>1727.45</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16215</v>
+        <v>16197.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13453.93</v>
+        <v>13460.03</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33142.87</v>
+        <v>33137.24</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4011.8</v>
+        <v>4011.72</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4011.8</v>
+        <v>4012.1</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2246.2</v>
+        <v>2244.5</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.677</v>
+        <v>1.679</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11055.71</v>
+        <v>11058.61</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7612</v>
+        <v>0.7613</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1774</v>
+        <v>1.1775</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20089.5</v>
+        <v>20090.3</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3831</v>
+        <v>1.3832</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.89</v>
+        <v>1867.9</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.32</v>
+        <v>131.35</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,13 +1384,13 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10192.2</v>
+        <v>10192.92</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
       </c>
       <c r="F12" t="n">
-        <v>10195.09</v>
+        <v>10195.1</v>
       </c>
       <c r="G12" t="n">
         <v>10113.03</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10806.49</v>
+        <v>10806.89</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2555</v>
+        <v>1.2556</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1518,7 +1518,7 @@
         <v>1.2602</v>
       </c>
       <c r="G17" t="n">
-        <v>1.2552</v>
+        <v>1.2551</v>
       </c>
     </row>
     <row r="18">
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7762</v>
+        <v>7.7761</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.6</v>
+        <v>110.58</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.543</v>
+        <v>48.561</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.97</v>
+        <v>63.94</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.58</v>
+        <v>60.49</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.45</v>
+        <v>1727.55</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16197.5</v>
+        <v>16212.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13460.03</v>
+        <v>13449.91</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33137.24</v>
+        <v>33139.27</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4011.72</v>
+        <v>4011.27</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4012.1</v>
+        <v>4012.3</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2244.5</v>
+        <v>2243.7</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11058.61</v>
+        <v>11056.43</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17103.2</v>
+        <v>17102.5</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1775</v>
+        <v>1.1774</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20090.3</v>
+        <v>20093.2</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3832</v>
+        <v>1.3834</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.9</v>
+        <v>1867.88</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.35</v>
+        <v>131.36</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10192.92</v>
+        <v>10192.19</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10806.89</v>
+        <v>10806.08</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2556</v>
+        <v>1.2555</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7761</v>
+        <v>7.7762</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.561</v>
+        <v>48.605</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.94</v>
+        <v>63.77</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.49</v>
+        <v>60.38</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.55</v>
+        <v>1727.95</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16212.5</v>
+        <v>16220</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13449.91</v>
+        <v>13452.89</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33139.27</v>
+        <v>33135.04</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4011.27</v>
+        <v>4011.55</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4012.3</v>
+        <v>4012.6</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2243.7</v>
+        <v>2243.4</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7613</v>
+        <v>0.7612</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17102.5</v>
+        <v>17100.3</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1774</v>
+        <v>1.1773</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20093.2</v>
+        <v>20089.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3834</v>
+        <v>1.383</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.88</v>
+        <v>1867.9</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.36</v>
+        <v>131.35</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10192.19</v>
+        <v>10190.74</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7017</v>
+        <v>0.7016</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10806.08</v>
+        <v>10805.28</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2555</v>
+        <v>1.2562</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.58</v>
+        <v>110.59</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.77</v>
+        <v>1128.34</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.605</v>
+        <v>48.645</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3441</v>
+        <v>1.3442</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.77</v>
+        <v>63.88</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.38</v>
+        <v>60.45</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.95</v>
+        <v>1727.65</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,13 +1809,13 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16220</v>
+        <v>16235</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
       </c>
       <c r="F29" t="n">
-        <v>16232.5</v>
+        <v>16240</v>
       </c>
       <c r="G29" t="n">
         <v>15947.5</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13452.89</v>
+        <v>13458.02</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33135.04</v>
+        <v>33140.71</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4011.55</v>
+        <v>4012.8</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4012.6</v>
+        <v>4012.8</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2243.4</v>
+        <v>2242.9</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11056.43</v>
+        <v>11052.8</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.7612</v>
+        <v>0.761</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17100.3</v>
+        <v>17098.8</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1773</v>
+        <v>1.1772</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20089.5</v>
+        <v>20080.8</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.383</v>
+        <v>1.3825</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.9</v>
+        <v>1867.89</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10190.74</v>
+        <v>10188.57</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7016</v>
+        <v>0.7015</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10805.28</v>
+        <v>10801.67</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>465.023</v>
+        <v>465.098</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1509,7 +1509,7 @@
         <v>44287</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2562</v>
+        <v>1.2566</v>
       </c>
       <c r="E17" t="n">
         <v>1.2565</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.59</v>
+        <v>110.58</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.34</v>
+        <v>1128.86</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.645</v>
+        <v>48.612</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3442</v>
+        <v>1.3446</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.235</v>
+        <v>31.23</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.88</v>
+        <v>63.94</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.45</v>
+        <v>60.49</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.65</v>
+        <v>1727.15</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13458.02</v>
+        <v>13449.54</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33140.71</v>
+        <v>33135.52</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,13 +2759,13 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4012.8</v>
+        <v>4011.3</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
       </c>
       <c r="F67" t="n">
-        <v>4012.8</v>
+        <v>4013.1</v>
       </c>
       <c r="G67" t="n">
         <v>3996.57</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.9</v>
+        <v>2243.2</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2884,7 +2884,7 @@
         <v>44287</v>
       </c>
       <c r="D72" t="n">
-        <v>1.679</v>
+        <v>1.681</v>
       </c>
       <c r="E72" t="n">
         <v>1.744</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11052.8</v>
+        <v>11049.17</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1184,7 +1184,7 @@
         <v>44287</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>0.761</v>
+        <v>0.7607</v>
       </c>
       <c r="E4" s="8" t="n">
         <v>0.7594</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17098.8</v>
+        <v>17099.6</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1772</v>
+        <v>1.1773</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20080.8</v>
+        <v>20076.5</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3825</v>
+        <v>1.3822</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1867.89</v>
+        <v>1868.01</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.35</v>
+        <v>131.34</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10188.57</v>
+        <v>10186.38</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7015</v>
+        <v>0.7013</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1484,7 +1484,7 @@
         <v>44287</v>
       </c>
       <c r="D16" t="n">
-        <v>465.098</v>
+        <v>465.023</v>
       </c>
       <c r="E16" t="n">
         <v>464.8</v>
@@ -1559,7 +1559,7 @@
         <v>44287</v>
       </c>
       <c r="D19" t="n">
-        <v>7.7762</v>
+        <v>7.7755</v>
       </c>
       <c r="E19" t="n">
         <v>7.7748</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.58</v>
+        <v>110.6</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1634,7 +1634,7 @@
         <v>44287</v>
       </c>
       <c r="D22" t="n">
-        <v>1128.86</v>
+        <v>1128.8</v>
       </c>
       <c r="E22" t="n">
         <v>1127.24</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.612</v>
+        <v>48.562</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3446</v>
+        <v>1.3448</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1709,7 +1709,7 @@
         <v>44287</v>
       </c>
       <c r="D25" t="n">
-        <v>31.23</v>
+        <v>31.235</v>
       </c>
       <c r="E25" t="n">
         <v>31.25</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.94</v>
+        <v>63.91</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1759,7 +1759,7 @@
         <v>44287</v>
       </c>
       <c r="D27" t="n">
-        <v>60.49</v>
+        <v>60.48</v>
       </c>
       <c r="E27" t="n">
         <v>59.58</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1727.15</v>
+        <v>1726.45</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16235</v>
+        <v>16222.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13449.54</v>
+        <v>13453.63</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33135.52</v>
+        <v>33148.6</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4011.3</v>
+        <v>4011.81</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2243.2</v>
+        <v>2242.4</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.69</v>
+        <v>29.68</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>

--- a/macro-uploader-2021-04-01-.xlsx
+++ b/macro-uploader-2021-04-01-.xlsx
@@ -1159,7 +1159,7 @@
         <v>44287</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>11049.17</v>
+        <v>11049.89</v>
       </c>
       <c r="E3" s="8" t="n">
         <v>11030.29</v>
@@ -1209,7 +1209,7 @@
         <v>44287</v>
       </c>
       <c r="D5" s="9" t="n">
-        <v>17099.6</v>
+        <v>17098.8</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>17034.2</v>
@@ -1234,7 +1234,7 @@
         <v>44287</v>
       </c>
       <c r="D6" s="9" t="n">
-        <v>1.1773</v>
+        <v>1.1772</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1.1727</v>
@@ -1259,7 +1259,7 @@
         <v>44287</v>
       </c>
       <c r="D7" t="n">
-        <v>20076.5</v>
+        <v>20071.4</v>
       </c>
       <c r="E7" t="n">
         <v>20024.2</v>
@@ -1284,7 +1284,7 @@
         <v>44287</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3822</v>
+        <v>1.3819</v>
       </c>
       <c r="E8" t="n">
         <v>1.3786</v>
@@ -1309,7 +1309,7 @@
         <v>44287</v>
       </c>
       <c r="D9" t="n">
-        <v>1868.01</v>
+        <v>1868.04</v>
       </c>
       <c r="E9" t="n">
         <v>1868.23</v>
@@ -1334,7 +1334,7 @@
         <v>44287</v>
       </c>
       <c r="D10" t="n">
-        <v>131.34</v>
+        <v>131.36</v>
       </c>
       <c r="E10" t="n">
         <v>131.15</v>
@@ -1384,7 +1384,7 @@
         <v>44287</v>
       </c>
       <c r="D12" t="n">
-        <v>10186.38</v>
+        <v>10187.83</v>
       </c>
       <c r="E12" t="n">
         <v>10142.8</v>
@@ -1409,7 +1409,7 @@
         <v>44287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7013</v>
+        <v>0.7014</v>
       </c>
       <c r="E13" t="n">
         <v>0.6983</v>
@@ -1459,7 +1459,7 @@
         <v>44287</v>
       </c>
       <c r="D15" t="n">
-        <v>10801.67</v>
+        <v>10802.07</v>
       </c>
       <c r="E15" t="n">
         <v>10798.86</v>
@@ -1609,7 +1609,7 @@
         <v>44287</v>
       </c>
       <c r="D21" t="n">
-        <v>110.6</v>
+        <v>110.57</v>
       </c>
       <c r="E21" t="n">
         <v>110.75</v>
@@ -1659,7 +1659,7 @@
         <v>44287</v>
       </c>
       <c r="D23" t="n">
-        <v>48.562</v>
+        <v>48.625</v>
       </c>
       <c r="E23" t="n">
         <v>48.51</v>
@@ -1684,7 +1684,7 @@
         <v>44287</v>
       </c>
       <c r="D24" t="n">
-        <v>1.3448</v>
+        <v>1.3447</v>
       </c>
       <c r="E24" t="n">
         <v>1.345</v>
@@ -1734,7 +1734,7 @@
         <v>44287</v>
       </c>
       <c r="D26" t="n">
-        <v>63.91</v>
+        <v>63.95</v>
       </c>
       <c r="E26" t="n">
         <v>63.19</v>
@@ -1784,7 +1784,7 @@
         <v>44287</v>
       </c>
       <c r="D28" t="n">
-        <v>1726.45</v>
+        <v>1727.25</v>
       </c>
       <c r="E28" t="n">
         <v>1708.35</v>
@@ -1809,7 +1809,7 @@
         <v>44287</v>
       </c>
       <c r="D29" t="n">
-        <v>16222.5</v>
+        <v>16227.5</v>
       </c>
       <c r="E29" t="n">
         <v>16150</v>
@@ -2709,7 +2709,7 @@
         <v>44287</v>
       </c>
       <c r="D65" t="n">
-        <v>13453.63</v>
+        <v>13458.31</v>
       </c>
       <c r="E65" t="n">
         <v>13413.33</v>
@@ -2734,7 +2734,7 @@
         <v>44287</v>
       </c>
       <c r="D66" t="n">
-        <v>33148.6</v>
+        <v>33134.32</v>
       </c>
       <c r="E66" t="n">
         <v>33054.58</v>
@@ -2759,7 +2759,7 @@
         <v>44287</v>
       </c>
       <c r="D67" t="n">
-        <v>4011.81</v>
+        <v>4011.8</v>
       </c>
       <c r="E67" t="n">
         <v>3998.4</v>
@@ -2809,7 +2809,7 @@
         <v>44287</v>
       </c>
       <c r="D69" t="n">
-        <v>2242.4</v>
+        <v>2242.9</v>
       </c>
       <c r="E69" t="n">
         <v>2238.15</v>
@@ -2834,7 +2834,7 @@
         <v>44287</v>
       </c>
       <c r="D70" t="n">
-        <v>29.68</v>
+        <v>29.69</v>
       </c>
       <c r="E70" t="n">
         <v>29.64</v>
